--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N2">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q2">
-        <v>98.57647733997499</v>
+        <v>26.514538519514</v>
       </c>
       <c r="R2">
-        <v>887.188296059775</v>
+        <v>238.630846675626</v>
       </c>
       <c r="S2">
-        <v>0.02540262294804876</v>
+        <v>0.01411706318492401</v>
       </c>
       <c r="T2">
-        <v>0.02540262294804876</v>
+        <v>0.01411706318492401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P3">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q3">
-        <v>437.4333907184849</v>
+        <v>81.22521242343898</v>
       </c>
       <c r="R3">
-        <v>3936.900516466364</v>
+        <v>731.0269118109508</v>
       </c>
       <c r="S3">
-        <v>0.1127242095594952</v>
+        <v>0.04324651757173333</v>
       </c>
       <c r="T3">
-        <v>0.1127242095594951</v>
+        <v>0.04324651757173333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N4">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q4">
-        <v>209.30034025839</v>
+        <v>43.480672040999</v>
       </c>
       <c r="R4">
-        <v>1883.70306232551</v>
+        <v>391.3260483689909</v>
       </c>
       <c r="S4">
-        <v>0.05393556120032014</v>
+        <v>0.02315029522667297</v>
       </c>
       <c r="T4">
-        <v>0.05393556120032013</v>
+        <v>0.02315029522667297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N5">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O5">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P5">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q5">
-        <v>26.39381467342501</v>
+        <v>10.59076638294</v>
       </c>
       <c r="R5">
-        <v>237.544332060825</v>
+        <v>95.31689744645998</v>
       </c>
       <c r="S5">
-        <v>0.006801542725018849</v>
+        <v>0.005638812762843194</v>
       </c>
       <c r="T5">
-        <v>0.006801542725018846</v>
+        <v>0.005638812762843194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N6">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q6">
-        <v>106.8750385826194</v>
+        <v>154.8132536215855</v>
       </c>
       <c r="R6">
-        <v>961.8753472435749</v>
+        <v>1393.31928259427</v>
       </c>
       <c r="S6">
-        <v>0.02754111711974809</v>
+        <v>0.08242679696767538</v>
       </c>
       <c r="T6">
-        <v>0.02754111711974809</v>
+        <v>0.08242679696767539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P7">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q7">
         <v>474.2582791747382</v>
@@ -883,10 +883,10 @@
         <v>4268.324512572644</v>
       </c>
       <c r="S7">
-        <v>0.1222137833584446</v>
+        <v>0.2525080377376988</v>
       </c>
       <c r="T7">
-        <v>0.1222137833584445</v>
+        <v>0.2525080377376988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N8">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q8">
-        <v>226.9200781371367</v>
+        <v>253.8752203198272</v>
       </c>
       <c r="R8">
-        <v>2042.28070323423</v>
+        <v>2284.876982878445</v>
       </c>
       <c r="S8">
-        <v>0.05847607197789229</v>
+        <v>0.1351700888063277</v>
       </c>
       <c r="T8">
-        <v>0.05847607197789229</v>
+        <v>0.1351700888063277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N9">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O9">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P9">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q9">
-        <v>28.615751320025</v>
+        <v>61.83743310796666</v>
       </c>
       <c r="R9">
-        <v>257.541761880225</v>
+        <v>556.5368979716999</v>
       </c>
       <c r="S9">
-        <v>0.007374123733907697</v>
+        <v>0.03292393528690681</v>
       </c>
       <c r="T9">
-        <v>0.007374123733907695</v>
+        <v>0.03292393528690683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N10">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q10">
-        <v>32.14835754128888</v>
+        <v>48.99246978052511</v>
       </c>
       <c r="R10">
-        <v>289.3352178716</v>
+        <v>440.9322280247259</v>
       </c>
       <c r="S10">
-        <v>0.008284457175355467</v>
+        <v>0.02608492661368146</v>
       </c>
       <c r="T10">
-        <v>0.008284457175355467</v>
+        <v>0.02608492661368146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P11">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q11">
-        <v>142.6584254661066</v>
+        <v>150.0845946137556</v>
       </c>
       <c r="R11">
-        <v>1283.92582919496</v>
+        <v>1350.761351523801</v>
       </c>
       <c r="S11">
-        <v>0.03676230161866671</v>
+        <v>0.07990912999246609</v>
       </c>
       <c r="T11">
-        <v>0.0367623016186667</v>
+        <v>0.07990912999246609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N12">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q12">
-        <v>68.25829400389333</v>
+        <v>80.34179095509344</v>
       </c>
       <c r="R12">
-        <v>614.32464603504</v>
+        <v>723.076118595841</v>
       </c>
       <c r="S12">
-        <v>0.01758979172767425</v>
+        <v>0.04277615989689114</v>
       </c>
       <c r="T12">
-        <v>0.01758979172767425</v>
+        <v>0.04277615989689115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N13">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O13">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P13">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q13">
-        <v>8.607710621200001</v>
+        <v>19.56918094527333</v>
       </c>
       <c r="R13">
-        <v>77.4693955908</v>
+        <v>176.12262850746</v>
       </c>
       <c r="S13">
-        <v>0.002218160287896464</v>
+        <v>0.01041916545816232</v>
       </c>
       <c r="T13">
-        <v>0.002218160287896464</v>
+        <v>0.01041916545816232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N14">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q14">
-        <v>258.098236048521</v>
+        <v>77.44190900297868</v>
       </c>
       <c r="R14">
-        <v>2322.884124436689</v>
+        <v>696.9771810268079</v>
       </c>
       <c r="S14">
-        <v>0.0665105139767285</v>
+        <v>0.04123218368487087</v>
       </c>
       <c r="T14">
-        <v>0.0665105139767285</v>
+        <v>0.04123218368487087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P15">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q15">
-        <v>1145.311635997979</v>
+        <v>237.237223820212</v>
       </c>
       <c r="R15">
-        <v>10307.80472398181</v>
+        <v>2135.135014381907</v>
       </c>
       <c r="S15">
-        <v>0.2951405896452266</v>
+        <v>0.1263115658611613</v>
       </c>
       <c r="T15">
-        <v>0.2951405896452265</v>
+        <v>0.1263115658611613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N16">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q16">
-        <v>548.0014105062706</v>
+        <v>126.9954687353587</v>
       </c>
       <c r="R16">
-        <v>4932.012694556436</v>
+        <v>1142.959218618228</v>
       </c>
       <c r="S16">
-        <v>0.1412169878832192</v>
+        <v>0.06761584988615374</v>
       </c>
       <c r="T16">
-        <v>0.1412169878832192</v>
+        <v>0.06761584988615375</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N17">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O17">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P17">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q17">
-        <v>69.10570547483</v>
+        <v>30.93280940552</v>
       </c>
       <c r="R17">
-        <v>621.95134927347</v>
+        <v>278.39528464968</v>
       </c>
       <c r="S17">
-        <v>0.01780816506235747</v>
+        <v>0.01646947106183094</v>
       </c>
       <c r="T17">
-        <v>0.01780816506235747</v>
+        <v>0.01646947106183094</v>
       </c>
     </row>
   </sheetData>
